--- a/meta/8-9-1-1.xlsx
+++ b/meta/8-9-1-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\Национальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="8.5.1.1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
   </si>
   <si>
     <t>8.9 К 2030 году обеспечить разработку и осуществление стратегий поощрения устойчивого туризма, который способствует созданию рабочих мест, развитию местной культуры и производству местной продукции</t>
-  </si>
-  <si>
-    <t>8.9.1.1 Непосредственный вклад туризма в ВВП в процентном отношении к совокупному ВВП и по темпам роста</t>
   </si>
   <si>
     <t xml:space="preserve"> Национальный статистический комитет Кыргызской Республики</t>
@@ -143,6 +137,12 @@
 - объемов продаж товаров в сфере туризма (валового дохода или торговой наценки);                                                                                                              - туристско-экскурсионных, санаторно-курортных, оздоровительных услуг; 
 - услуг гостиниц; 
 - объемов производства товаров для туризма.</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>8.9.1.1 Непосредственный вклад туризма в ВВП в процентном отношении к совокупному ВВП и по темпам роста</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -632,15 +632,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -702,7 +702,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="245.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1727,8 +1727,9 @@
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" display="https://sustainabledevelopment-kyrgyzstan.github.io/"/>
     <hyperlink ref="B8" r:id="rId2" display="mailto:eisenkulova@stat.kg"/>
+    <hyperlink ref="B10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>